--- a/Results/graphics.xlsx
+++ b/Results/graphics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Benchmark\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570C2C62-DFAC-48DA-90AF-EF4ECC4AD899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3F8C2-FE60-44EF-9C92-B5B293807F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +78,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -259,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -270,6 +284,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -439,19 +461,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.57399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23599999999999999</c:v>
+                  <c:v>0.2268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.219</c:v>
+                  <c:v>0.21410000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.151</c:v>
+                  <c:v>0.1474</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.224</c:v>
+                  <c:v>0.21929999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,19 +561,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.0649999999999999</c:v>
+                  <c:v>0.99839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32700000000000001</c:v>
+                  <c:v>0.30599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.2994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16700000000000001</c:v>
+                  <c:v>0.16589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.316</c:v>
+                  <c:v>0.33160000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,19 +661,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.9319999999999999</c:v>
+                  <c:v>1.8647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88100000000000001</c:v>
+                  <c:v>0.88660000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85799999999999998</c:v>
+                  <c:v>0.88890000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20399999999999999</c:v>
+                  <c:v>0.21210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88400000000000001</c:v>
+                  <c:v>0.90459999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,19 +761,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8820000000000001</c:v>
+                  <c:v>3.7692999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0720000000000001</c:v>
+                  <c:v>1.0932999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.085</c:v>
+                  <c:v>1.1136999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.22589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.105</c:v>
+                  <c:v>1.1206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -763,7 +785,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -783,6 +804,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
+                  <a:t>Module</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1300" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.50748486115909874"/>
+              <c:y val="0.89356749312218786"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -845,6 +924,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" baseline="0"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1300" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.8475750577367205E-2"/>
+              <c:y val="0.44619239895268087"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1041,7 +1178,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$K$1</c:f>
+              <c:f>Лист1!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1085,7 +1222,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$J$2:$J$6</c:f>
+              <c:f>Лист1!$K$2:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1108,24 +1245,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$K$2:$K$6</c:f>
+              <c:f>Лист1!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.4269999999999996</c:v>
+                  <c:v>6.1428000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.331</c:v>
+                  <c:v>2.1896</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1829999999999998</c:v>
+                  <c:v>2.0737999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1739999999999999</c:v>
+                  <c:v>0.95850000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.165</c:v>
+                  <c:v>2.0804</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1141,7 +1278,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$L$1</c:f>
+              <c:f>Лист1!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1185,7 +1322,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$J$2:$J$6</c:f>
+              <c:f>Лист1!$K$2:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1208,24 +1345,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$2:$L$6</c:f>
+              <c:f>Лист1!$M$2:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.233000000000001</c:v>
+                  <c:v>9.9183000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.077</c:v>
+                  <c:v>2.7995999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9870000000000001</c:v>
+                  <c:v>2.7959000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3340000000000001</c:v>
+                  <c:v>1.1259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0470000000000002</c:v>
+                  <c:v>2.7837000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,7 +1378,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$M$1</c:f>
+              <c:f>Лист1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1285,7 +1422,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$J$2:$J$6</c:f>
+              <c:f>Лист1!$K$2:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1308,24 +1445,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$M$2:$M$6</c:f>
+              <c:f>Лист1!$N$2:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.376000000000001</c:v>
+                  <c:v>17.882300000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2970000000000006</c:v>
+                  <c:v>8.8675999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.2690000000000001</c:v>
+                  <c:v>8.8973999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5629999999999999</c:v>
+                  <c:v>1.3131999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2780000000000005</c:v>
+                  <c:v>8.8050999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,7 +1478,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$N$1</c:f>
+              <c:f>Лист1!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1385,7 +1522,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$J$2:$J$6</c:f>
+              <c:f>Лист1!$K$2:$K$6</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1408,24 +1545,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$N$2:$N$6</c:f>
+              <c:f>Лист1!$O$2:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>43.774999999999999</c:v>
+                  <c:v>40.087400000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.519</c:v>
+                  <c:v>10.897399999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.568</c:v>
+                  <c:v>10.9527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7949999999999999</c:v>
+                  <c:v>1.5330999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.503</c:v>
+                  <c:v>10.866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,6 +1593,64 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="44546A"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Module</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="44546A"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1518,6 +1713,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1300"/>
+                  <a:t>Seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1300"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7592080516320639E-2"/>
+              <c:y val="0.42480341782553072"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2659,9 +2912,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2688,16 +2941,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>3174</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34924</xdr:rowOff>
+      <xdr:rowOff>22224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2988,19 +3241,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3016,181 +3271,246 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>0.6</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0649999999999999</v>
+        <v>0.99839999999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>1.9319999999999999</v>
+        <v>1.8647</v>
       </c>
       <c r="E2" s="2">
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="J2" s="8" t="s">
+        <v>3.7692999999999999</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1">
-        <v>5.4269999999999996</v>
-      </c>
       <c r="L2" s="1">
-        <v>10.233000000000001</v>
+        <v>6.1428000000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>19.376000000000001</v>
-      </c>
-      <c r="N2" s="2">
-        <v>43.774999999999999</v>
+        <v>9.9183000000000003</v>
+      </c>
+      <c r="N2" s="1">
+        <v>17.882300000000001</v>
+      </c>
+      <c r="O2" s="2">
+        <v>40.087400000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>0.23599999999999999</v>
+        <v>0.2268</v>
       </c>
       <c r="C3" s="1">
-        <v>0.32700000000000001</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>0.88100000000000001</v>
+        <v>0.88660000000000005</v>
       </c>
       <c r="E3" s="2">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="J3" s="8" t="s">
+        <v>1.0932999999999999</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="1">
-        <v>2.331</v>
-      </c>
       <c r="L3" s="1">
-        <v>3.077</v>
+        <v>2.1896</v>
       </c>
       <c r="M3" s="1">
-        <v>9.2970000000000006</v>
-      </c>
-      <c r="N3" s="2">
-        <v>11.519</v>
+        <v>2.7995999999999999</v>
+      </c>
+      <c r="N3" s="1">
+        <v>8.8675999999999995</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10.897399999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>0.219</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="C4" s="1">
-        <v>0.30499999999999999</v>
+        <v>0.2994</v>
       </c>
       <c r="D4" s="1">
-        <v>0.85799999999999998</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="E4" s="2">
-        <v>1.085</v>
-      </c>
-      <c r="J4" s="8" t="s">
+        <v>1.1136999999999999</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
-        <v>2.1829999999999998</v>
-      </c>
       <c r="L4" s="1">
-        <v>2.9870000000000001</v>
+        <v>2.0737999999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>9.2690000000000001</v>
-      </c>
-      <c r="N4" s="2">
-        <v>11.568</v>
+        <v>2.7959000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>8.8973999999999993</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10.9527</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>0.151</v>
+        <v>0.1474</v>
       </c>
       <c r="C5" s="1">
-        <v>0.16700000000000001</v>
+        <v>0.16589999999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>0.20399999999999999</v>
+        <v>0.21210000000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="J5" s="8" t="s">
+        <v>0.22589999999999999</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1">
-        <v>1.1739999999999999</v>
-      </c>
       <c r="L5" s="1">
-        <v>1.3340000000000001</v>
+        <v>0.95850000000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1.7949999999999999</v>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.3131999999999999</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.5330999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="3">
-        <v>0.224</v>
+        <v>0.21929999999999999</v>
       </c>
       <c r="C6" s="3">
-        <v>0.316</v>
+        <v>0.33160000000000001</v>
       </c>
       <c r="D6" s="3">
-        <v>0.88400000000000001</v>
+        <v>0.90459999999999996</v>
       </c>
       <c r="E6" s="4">
-        <v>1.105</v>
-      </c>
-      <c r="J6" s="9" t="s">
+        <v>1.1206</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="3">
-        <v>2.165</v>
-      </c>
       <c r="L6" s="3">
-        <v>3.0470000000000002</v>
+        <v>2.0804</v>
       </c>
       <c r="M6" s="3">
-        <v>9.2780000000000005</v>
-      </c>
-      <c r="N6" s="4">
-        <v>11.503</v>
-      </c>
+        <v>2.7837000000000001</v>
+      </c>
+      <c r="N6" s="3">
+        <v>8.8050999999999995</v>
+      </c>
+      <c r="O6" s="4">
+        <v>10.866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
